--- a/vggvox_res.xlsx
+++ b/vggvox_res.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EBF54C-11DD-4A98-ACB0-51E833CC152E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501C49F2-F6C5-475C-9440-9F1AE196E2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{BBBB6702-781D-44F2-84BE-9FA69C6AF96C}"/>
   </bookViews>
@@ -31,17 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>test_acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,19 +45,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>model_128_20_0.475</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -89,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_vioce_len</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>model_128_25_0.614</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,15 +81,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>model_128_35_0.890</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>model_256_30_0.626</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_128_45_0.984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_128_50_0.999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_128_55_1.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试  类别：151 总数：18781  语音长度：不定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_256_35_0.749</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_256_40_0.866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_256_55_0.992</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_256_45_0.953</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,12 +150,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,12 +178,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,10 +194,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -208,6 +221,2143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>128 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>acc</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$A$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>model_128_20_0.475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>model_128_25_0.614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>model_128_30_0.758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>model_128_35_0.890</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>model_128_40_0.969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>model_128_45_0.984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>model_128_50_0.999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>model_128_55_1.000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$2:$C$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.16569900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18348300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.118524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18875500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8770999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.179117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10409499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10734299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5890-4146-BD1C-34C3A3769432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2098990688"/>
+        <c:axId val="1928563440"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>train_num</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$A$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$5:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>model_128_20_0.475</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>model_128_25_0.614</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>model_128_30_0.758</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>model_128_35_0.890</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>model_128_40_0.969</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>model_128_45_0.984</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>model_128_50_0.999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>model_128_55_1.000</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$2:$B$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$5:$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>15629</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-5890-4146-BD1C-34C3A3769432}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2098990688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1928563440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1928563440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2098990688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>256</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> acc</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$13:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>model_256_20_0.388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>model_256_25_0.507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>model_256_30_0.626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>model_256_35_0.749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>model_256_40_0.866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>model_256_45_0.953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>model_256_55_0.992</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.21011099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24237300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16053500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25248900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.243065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.246419</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.149566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D2D-4E19-AB06-ACC6B2376F04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="102823280"/>
+        <c:axId val="1928557616"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>model_256_20_0.388</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>model_256_25_0.507</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>model_256_30_0.626</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>model_256_35_0.749</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>model_256_40_0.866</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>model_256_45_0.953</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>model_256_55_0.992</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$13:$B$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>30929</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7D2D-4E19-AB06-ACC6B2376F04}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="102823280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1928557616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1928557616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102823280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A1CA5F-637D-4B74-923E-8EBD75A0C8AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BB22BD-E4FD-488E-BECA-D91C4C332835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,301 +2657,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F13A163-EB6F-4391-8BAD-9FF142C9BF11}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="9" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" style="3" customWidth="1"/>
+    <col min="4" max="6" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>8147</v>
+      </c>
+      <c r="C2" s="6">
+        <v>9.9515000000000006E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="6">
+        <v>0.12512599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7">
+        <v>0.13162199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>15629</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.16569900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6">
+        <v>0.18348300000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6">
+        <v>0.118524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7">
+        <v>0.18875500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6">
+        <v>9.8770999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6">
+        <v>0.179117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6">
+        <v>0.10409499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6">
+        <v>0.10734299999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8">
+        <v>30929</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.21011099999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6">
+        <v>0.24237300000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6">
+        <v>0.16053500000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7">
-        <v>8147</v>
-      </c>
-      <c r="C2" s="1">
-        <v>151</v>
-      </c>
-      <c r="D2" s="1">
-        <v>18781</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>9.9515000000000006E-2</v>
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7">
+        <v>0.25248900000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="1">
-        <v>151</v>
-      </c>
-      <c r="D3" s="1">
-        <v>18781</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.12512599999999999</v>
+    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="6">
+        <v>0.243065</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="1">
-        <v>151</v>
-      </c>
-      <c r="D4" s="1">
-        <v>18781</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.13162199999999999</v>
+    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="6">
+        <v>0.246419</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>15629</v>
-      </c>
-      <c r="C5" s="1">
-        <v>151</v>
-      </c>
-      <c r="D5" s="1">
-        <v>18781</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.16569900000000001</v>
+    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="6">
+        <v>0.149566</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="1">
-        <v>151</v>
-      </c>
-      <c r="D6" s="1">
-        <v>18781</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.18348300000000001</v>
-      </c>
+    <row r="20" spans="1:3" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="1">
-        <v>151</v>
-      </c>
-      <c r="D7" s="1">
-        <v>18781</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.118524</v>
-      </c>
+    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5">
-        <v>151</v>
-      </c>
-      <c r="D8" s="5">
-        <v>18781</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.18875500000000001</v>
-      </c>
+    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="1">
-        <v>151</v>
-      </c>
-      <c r="D9" s="1">
-        <v>18781</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1">
-        <v>9.8770999999999998E-2</v>
-      </c>
+    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7">
-        <v>30929</v>
-      </c>
-      <c r="C11" s="1">
-        <v>151</v>
-      </c>
-      <c r="D11" s="1">
-        <v>18781</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.21011099999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="1">
-        <v>151</v>
-      </c>
-      <c r="D12" s="1">
-        <v>18781</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.24237300000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/vggvox_res.xlsx
+++ b/vggvox_res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501C49F2-F6C5-475C-9440-9F1AE196E2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8446F342-A5A5-4ED1-95E8-77D76011741B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{BBBB6702-781D-44F2-84BE-9FA69C6AF96C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>test_acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,14 @@
     <t>model_256_45_0.953</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>model_256_50_0.984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_512_cu05_20_2.455_0.421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -178,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,6 +210,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,7 +348,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$20</c15:sqref>
+                    <c15:sqref>Sheet1!$A$2:$A$22</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
@@ -376,7 +387,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$2:$C$20</c15:sqref>
+                    <c15:sqref>Sheet1!$C$2:$C$22</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
@@ -469,7 +480,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$2:$A$20</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$22</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$5:$A$12</c15:sqref>
@@ -510,7 +521,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$2:$B$20</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$B$22</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$5:$B$12</c15:sqref>
@@ -824,9 +835,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$A$19</c:f>
+              <c:f>Sheet1!$A$13:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>model_256_20_0.388</c:v>
                 </c:pt>
@@ -846,6 +857,9 @@
                   <c:v>model_256_45_0.953</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>model_256_50_0.984</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>model_256_55_0.992</c:v>
                 </c:pt>
               </c:strCache>
@@ -853,10 +867,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$C$19</c:f>
+              <c:f>Sheet1!$C$13:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.21011099999999999</c:v>
                 </c:pt>
@@ -876,6 +890,9 @@
                   <c:v>0.246419</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.24556700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.149566</c:v>
                 </c:pt>
               </c:numCache>
@@ -922,12 +939,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
                         <c:v>model_256_20_0.388</c:v>
                       </c:pt>
@@ -947,6 +964,9 @@
                         <c:v>model_256_45_0.953</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>model_256_50_0.984</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
                         <c:v>model_256_55_0.992</c:v>
                       </c:pt>
                     </c:strCache>
@@ -957,13 +977,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$13:$B$19</c15:sqref>
+                          <c15:sqref>Sheet1!$B$13:$B$20</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
                         <c:v>30929</c:v>
                       </c:pt>
@@ -2657,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F13A163-EB6F-4391-8BAD-9FF142C9BF11}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2686,7 +2706,7 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>8147</v>
       </c>
       <c r="C2" s="6">
@@ -2697,7 +2717,7 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="6">
         <v>0.12512599999999999</v>
       </c>
@@ -2706,7 +2726,7 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="7">
         <v>0.13162199999999999</v>
       </c>
@@ -2715,7 +2735,7 @@
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>15629</v>
       </c>
       <c r="C5" s="6">
@@ -2726,7 +2746,7 @@
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="6">
         <v>0.18348300000000001</v>
       </c>
@@ -2735,7 +2755,7 @@
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="6">
         <v>0.118524</v>
       </c>
@@ -2744,7 +2764,7 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="7">
         <v>0.18875500000000001</v>
       </c>
@@ -2753,7 +2773,7 @@
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="6">
         <v>9.8770999999999998E-2</v>
       </c>
@@ -2762,7 +2782,7 @@
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="6">
         <v>0.179117</v>
       </c>
@@ -2771,7 +2791,7 @@
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="6">
         <v>0.10409499999999999</v>
       </c>
@@ -2780,7 +2800,7 @@
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="6">
         <v>0.10734299999999999</v>
       </c>
@@ -2789,7 +2809,7 @@
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>30929</v>
       </c>
       <c r="C13" s="6">
@@ -2800,7 +2820,7 @@
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="6">
         <v>0.24237300000000001</v>
       </c>
@@ -2809,7 +2829,7 @@
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="6">
         <v>0.16053500000000001</v>
       </c>
@@ -2818,7 +2838,7 @@
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="7">
         <v>0.25248900000000002</v>
       </c>
@@ -2827,7 +2847,7 @@
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="6">
         <v>0.243065</v>
       </c>
@@ -2836,51 +2856,69 @@
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="6">
         <v>0.246419</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="6">
+        <v>0.24556700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6">
+      <c r="B20" s="9"/>
+      <c r="C20" s="6">
         <v>0.149566</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="6">
+        <v>0.27298899999999998</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="2"/>
+    <row r="22" spans="1:3" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="2"/>
+    </row>
     <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B13:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
